--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>17.936117</v>
       </c>
       <c r="I2">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J2">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N2">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O2">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P2">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q2">
-        <v>518.8167005223586</v>
+        <v>302.5658433813581</v>
       </c>
       <c r="R2">
-        <v>3112.900203134152</v>
+        <v>1815.395060288149</v>
       </c>
       <c r="S2">
-        <v>0.2150698573242819</v>
+        <v>0.1213101954388811</v>
       </c>
       <c r="T2">
-        <v>0.1680201415429332</v>
+        <v>0.09612109437953344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>17.936117</v>
       </c>
       <c r="I3">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J3">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P3">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q3">
         <v>770.7071233571842</v>
@@ -641,10 +641,10 @@
         <v>6936.364110214658</v>
       </c>
       <c r="S3">
-        <v>0.319488310403944</v>
+        <v>0.3090059033621846</v>
       </c>
       <c r="T3">
-        <v>0.3743932678658262</v>
+        <v>0.3672649132266146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>17.936117</v>
       </c>
       <c r="I4">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J4">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N4">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O4">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P4">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q4">
-        <v>74.91072076950056</v>
+        <v>100.220152263189</v>
       </c>
       <c r="R4">
-        <v>674.196486925505</v>
+        <v>901.9813703687009</v>
       </c>
       <c r="S4">
-        <v>0.03105342987558917</v>
+        <v>0.04018208440877483</v>
       </c>
       <c r="T4">
-        <v>0.03639004843358608</v>
+        <v>0.04775788935771889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>17.936117</v>
       </c>
       <c r="I5">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J5">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N5">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O5">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P5">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q5">
-        <v>215.5720767505468</v>
+        <v>211.8704269027925</v>
       </c>
       <c r="R5">
-        <v>1293.432460503281</v>
+        <v>1271.222561416755</v>
       </c>
       <c r="S5">
-        <v>0.08936307513455079</v>
+        <v>0.08494694116183403</v>
       </c>
       <c r="T5">
-        <v>0.06981357926964037</v>
+        <v>0.06730838178216553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>17.936117</v>
       </c>
       <c r="I6">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J6">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N6">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O6">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P6">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q6">
-        <v>255.3946159634288</v>
+        <v>20.34560712813467</v>
       </c>
       <c r="R6">
-        <v>2298.551543670859</v>
+        <v>183.110464153212</v>
       </c>
       <c r="S6">
-        <v>0.1058710784778935</v>
+        <v>0.008157330482032777</v>
       </c>
       <c r="T6">
-        <v>0.1240653186769258</v>
+        <v>0.00969528814513651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>17.936117</v>
       </c>
       <c r="I7">
-        <v>0.8036718008769134</v>
+        <v>0.595556966813887</v>
       </c>
       <c r="J7">
-        <v>0.8228681815612665</v>
+        <v>0.626126682935754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N7">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O7">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P7">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q7">
-        <v>103.3100131174847</v>
+        <v>79.69935112290401</v>
       </c>
       <c r="R7">
-        <v>929.7901180573621</v>
+        <v>717.294160106136</v>
       </c>
       <c r="S7">
-        <v>0.04282604966065389</v>
+        <v>0.03195451196017977</v>
       </c>
       <c r="T7">
-        <v>0.05018582577235486</v>
+        <v>0.03797911604458504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H8">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I8">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J8">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N8">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O8">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P8">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q8">
-        <v>42.96168227681199</v>
+        <v>54.56915503240234</v>
       </c>
       <c r="R8">
-        <v>257.770093660872</v>
+        <v>327.414930194414</v>
       </c>
       <c r="S8">
-        <v>0.01780930118167408</v>
+        <v>0.02187885713712782</v>
       </c>
       <c r="T8">
-        <v>0.01391325284981145</v>
+        <v>0.01733588577766115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H9">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I9">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J9">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P9">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q9">
-        <v>63.81998599661534</v>
+        <v>139.0006090213098</v>
       </c>
       <c r="R9">
-        <v>574.379873969538</v>
+        <v>1251.005481191788</v>
       </c>
       <c r="S9">
-        <v>0.02645588561222156</v>
+        <v>0.05573064975891958</v>
       </c>
       <c r="T9">
-        <v>0.03100240336217901</v>
+        <v>0.06623793275490303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H10">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I10">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J10">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N10">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O10">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P10">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q10">
-        <v>6.203136062478334</v>
+        <v>18.075169903854</v>
       </c>
       <c r="R10">
-        <v>55.828224562305</v>
+        <v>162.676529134686</v>
       </c>
       <c r="S10">
-        <v>0.00257144302906423</v>
+        <v>0.007247025537062351</v>
       </c>
       <c r="T10">
-        <v>0.003013352687504998</v>
+        <v>0.008613357143214958</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H11">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I11">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J11">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N11">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O11">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P11">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q11">
-        <v>17.8508884925735</v>
+        <v>38.21181546215499</v>
       </c>
       <c r="R11">
-        <v>107.105330955441</v>
+        <v>229.27089277293</v>
       </c>
       <c r="S11">
-        <v>0.007399892943584991</v>
+        <v>0.01532057534976231</v>
       </c>
       <c r="T11">
-        <v>0.005781056793602698</v>
+        <v>0.01213937924850845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H12">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I12">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J12">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N12">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O12">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P12">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q12">
-        <v>21.14847562767767</v>
+        <v>3.669424734781334</v>
       </c>
       <c r="R12">
-        <v>190.336280649099</v>
+        <v>33.02482261303201</v>
       </c>
       <c r="S12">
-        <v>0.008766872059614192</v>
+        <v>0.001471212436770429</v>
       </c>
       <c r="T12">
-        <v>0.01027348348116603</v>
+        <v>0.001748590243905779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.495079</v>
+        <v>1.078287333333333</v>
       </c>
       <c r="H13">
-        <v>1.485237</v>
+        <v>3.234862</v>
       </c>
       <c r="I13">
-        <v>0.06654969381159948</v>
+        <v>0.1074114648550466</v>
       </c>
       <c r="J13">
-        <v>0.06813928953393372</v>
+        <v>0.1129248551297318</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N13">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O13">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P13">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q13">
-        <v>8.554797783298001</v>
+        <v>14.374148115344</v>
       </c>
       <c r="R13">
-        <v>76.99318004968201</v>
+        <v>129.367333038096</v>
       </c>
       <c r="S13">
-        <v>0.003546298985440417</v>
+        <v>0.005763144635404145</v>
       </c>
       <c r="T13">
-        <v>0.004155740359669544</v>
+        <v>0.006849709961538413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H14">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I14">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J14">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N14">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O14">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P14">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q14">
-        <v>45.17993028006199</v>
+        <v>74.412695765406</v>
       </c>
       <c r="R14">
-        <v>180.719721120248</v>
+        <v>297.650783061624</v>
       </c>
       <c r="S14">
-        <v>0.01872885192298313</v>
+        <v>0.02983489003766238</v>
       </c>
       <c r="T14">
-        <v>0.009754425500583553</v>
+        <v>0.01575994098291045</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H15">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I15">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J15">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>386.726074</v>
       </c>
       <c r="O15">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P15">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q15">
-        <v>67.11521441882367</v>
+        <v>189.546824101768</v>
       </c>
       <c r="R15">
-        <v>402.691286512942</v>
+        <v>1137.280944610608</v>
       </c>
       <c r="S15">
-        <v>0.02782188694930598</v>
+        <v>0.07599655671517021</v>
       </c>
       <c r="T15">
-        <v>0.0217354372266378</v>
+        <v>0.06021647376059837</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H16">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I16">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J16">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N16">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O16">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P16">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q16">
-        <v>6.523423664249167</v>
+        <v>24.648029058996</v>
       </c>
       <c r="R16">
-        <v>39.140541985495</v>
+        <v>147.888174353976</v>
       </c>
       <c r="S16">
-        <v>0.002704214793632015</v>
+        <v>0.009882335655982542</v>
       </c>
       <c r="T16">
-        <v>0.00211262776681652</v>
+        <v>0.007830346945220352</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H17">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I17">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J17">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N17">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O17">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P17">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q17">
-        <v>18.77258651872975</v>
+        <v>52.10716927796999</v>
       </c>
       <c r="R17">
-        <v>75.090346074919</v>
+        <v>208.42867711188</v>
       </c>
       <c r="S17">
-        <v>0.007781972901269303</v>
+        <v>0.02089175307508244</v>
       </c>
       <c r="T17">
-        <v>0.004053034068780268</v>
+        <v>0.01103583070281813</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H18">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I18">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J18">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N18">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O18">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P18">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q18">
-        <v>22.24043854315683</v>
+        <v>5.003775232752001</v>
       </c>
       <c r="R18">
-        <v>133.442631258941</v>
+        <v>30.022651396512</v>
       </c>
       <c r="S18">
-        <v>0.009219533487434576</v>
+        <v>0.002006204483076087</v>
       </c>
       <c r="T18">
-        <v>0.00720262402547136</v>
+        <v>0.001589632015386178</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5206415</v>
+        <v>1.470396</v>
       </c>
       <c r="H19">
-        <v>1.041283</v>
+        <v>2.940792</v>
       </c>
       <c r="I19">
-        <v>0.06998586571155688</v>
+        <v>0.1464705959113568</v>
       </c>
       <c r="J19">
-        <v>0.04777169153728537</v>
+        <v>0.1026592511725923</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N19">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O19">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P19">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q19">
-        <v>8.996509143173</v>
+        <v>19.601166812256</v>
       </c>
       <c r="R19">
-        <v>53.979054859038</v>
+        <v>117.607000873536</v>
       </c>
       <c r="S19">
-        <v>0.003729405656931876</v>
+        <v>0.007858855944383141</v>
       </c>
       <c r="T19">
-        <v>0.002913542948995872</v>
+        <v>0.006227026765658773</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H20">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I20">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J20">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N20">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O20">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P20">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q20">
-        <v>38.59961237772666</v>
+        <v>41.52341608507833</v>
       </c>
       <c r="R20">
-        <v>231.59767426636</v>
+        <v>249.14049651047</v>
       </c>
       <c r="S20">
-        <v>0.01600105223770163</v>
+        <v>0.01664832244207373</v>
       </c>
       <c r="T20">
-        <v>0.0125005851366739</v>
+        <v>0.01319143017555948</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H21">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I21">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J21">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>386.726074</v>
       </c>
       <c r="O21">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P21">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q21">
-        <v>57.34008983979889</v>
+        <v>105.7700109346378</v>
       </c>
       <c r="R21">
-        <v>516.06080855819</v>
+        <v>951.9300984117401</v>
       </c>
       <c r="S21">
-        <v>0.0237697146764758</v>
+        <v>0.04240723458622906</v>
       </c>
       <c r="T21">
-        <v>0.02785460645715758</v>
+        <v>0.05040256241395192</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H22">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I22">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J22">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N22">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O22">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P22">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q22">
-        <v>5.573307069197223</v>
+        <v>13.75397512167</v>
       </c>
       <c r="R22">
-        <v>50.159763622775</v>
+        <v>123.78577609503</v>
       </c>
       <c r="S22">
-        <v>0.002310354225278071</v>
+        <v>0.005514493610464479</v>
       </c>
       <c r="T22">
-        <v>0.002707395044394082</v>
+        <v>0.006554179047389053</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H23">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I23">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J23">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N23">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O23">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P23">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q23">
-        <v>16.03841702407583</v>
+        <v>29.076593028775</v>
       </c>
       <c r="R23">
-        <v>96.230502144455</v>
+        <v>174.45955817265</v>
       </c>
       <c r="S23">
-        <v>0.006648552480292935</v>
+        <v>0.01165791598812977</v>
       </c>
       <c r="T23">
-        <v>0.005194083181587328</v>
+        <v>0.0092372420876056</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H24">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I24">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J24">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N24">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O24">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P24">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q24">
-        <v>19.00118706591611</v>
+        <v>2.792182689373334</v>
       </c>
       <c r="R24">
-        <v>171.010683593245</v>
+        <v>25.12964420436001</v>
       </c>
       <c r="S24">
-        <v>0.007876736788048821</v>
+        <v>0.001119492616759163</v>
       </c>
       <c r="T24">
-        <v>0.009230375979853579</v>
+        <v>0.001330558265322141</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4448116666666667</v>
+        <v>0.8205033333333334</v>
       </c>
       <c r="H25">
-        <v>1.334435</v>
+        <v>2.46151</v>
       </c>
       <c r="I25">
-        <v>0.05979263959993035</v>
+        <v>0.0817328203970821</v>
       </c>
       <c r="J25">
-        <v>0.06122083736751432</v>
+        <v>0.08592813546617631</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N25">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O25">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P25">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q25">
-        <v>7.686195253656668</v>
+        <v>10.93774922312</v>
       </c>
       <c r="R25">
-        <v>69.17575728291001</v>
+        <v>98.43974300808</v>
       </c>
       <c r="S25">
-        <v>0.003186229192133096</v>
+        <v>0.004385361153425913</v>
       </c>
       <c r="T25">
-        <v>0.003733791567847844</v>
+        <v>0.005212163476348115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H26">
+        <v>2.072866</v>
+      </c>
+      <c r="I26">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J26">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>50.6072485</v>
+      </c>
+      <c r="N26">
+        <v>101.214497</v>
+      </c>
+      <c r="O26">
+        <v>0.2036920096625967</v>
+      </c>
+      <c r="P26">
+        <v>0.1535170070198019</v>
+      </c>
+      <c r="Q26">
+        <v>34.96734825640033</v>
+      </c>
+      <c r="R26">
+        <v>209.804089538402</v>
+      </c>
+      <c r="S26">
+        <v>0.01401974460685173</v>
+      </c>
+      <c r="T26">
+        <v>0.01110865570413741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H27">
+        <v>2.072866</v>
+      </c>
+      <c r="I27">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J27">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N27">
+        <v>386.726074</v>
+      </c>
+      <c r="O27">
+        <v>0.5188519664463093</v>
+      </c>
+      <c r="P27">
+        <v>0.5865664620849566</v>
+      </c>
+      <c r="Q27">
+        <v>89.0701477897871</v>
+      </c>
+      <c r="R27">
+        <v>801.6313301080841</v>
+      </c>
+      <c r="S27">
+        <v>0.03571162202380583</v>
+      </c>
+      <c r="T27">
+        <v>0.04244457992888871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H28">
+        <v>2.072866</v>
+      </c>
+      <c r="I28">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J28">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.762851</v>
+      </c>
+      <c r="N28">
+        <v>50.288553</v>
+      </c>
+      <c r="O28">
+        <v>0.06746975797083039</v>
+      </c>
+      <c r="P28">
+        <v>0.07627512236628199</v>
+      </c>
+      <c r="Q28">
+        <v>11.582381300322</v>
+      </c>
+      <c r="R28">
+        <v>104.241431702898</v>
+      </c>
+      <c r="S28">
+        <v>0.004643818758546202</v>
+      </c>
+      <c r="T28">
+        <v>0.005519349872738748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H29">
+        <v>2.072866</v>
+      </c>
+      <c r="I29">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J29">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>35.4375075</v>
+      </c>
+      <c r="N29">
+        <v>70.87501499999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1426344512705199</v>
+      </c>
+      <c r="P29">
+        <v>0.1074996220678108</v>
+      </c>
+      <c r="Q29">
+        <v>24.485734807165</v>
+      </c>
+      <c r="R29">
+        <v>146.91440884299</v>
+      </c>
+      <c r="S29">
+        <v>0.009817265695711411</v>
+      </c>
+      <c r="T29">
+        <v>0.007778788246713061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H30">
+        <v>2.072866</v>
+      </c>
+      <c r="I30">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J30">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.403012</v>
+      </c>
+      <c r="N30">
+        <v>10.209036</v>
+      </c>
+      <c r="O30">
+        <v>0.01369697768069593</v>
+      </c>
+      <c r="P30">
+        <v>0.01548454715214769</v>
+      </c>
+      <c r="Q30">
+        <v>2.351329290797333</v>
+      </c>
+      <c r="R30">
+        <v>21.161963617176</v>
+      </c>
+      <c r="S30">
+        <v>0.0009427376620574764</v>
+      </c>
+      <c r="T30">
+        <v>0.001120478482397084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6909553333333333</v>
+      </c>
+      <c r="H31">
+        <v>2.072866</v>
+      </c>
+      <c r="I31">
+        <v>0.06882815202262757</v>
+      </c>
+      <c r="J31">
+        <v>0.0723610752957457</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>13.330536</v>
+      </c>
+      <c r="N31">
+        <v>39.991608</v>
+      </c>
+      <c r="O31">
+        <v>0.05365483696904789</v>
+      </c>
+      <c r="P31">
+        <v>0.06065723930900103</v>
+      </c>
+      <c r="Q31">
+        <v>9.210804945391999</v>
+      </c>
+      <c r="R31">
+        <v>82.89724450852799</v>
+      </c>
+      <c r="S31">
+        <v>0.003692963275654926</v>
+      </c>
+      <c r="T31">
+        <v>0.00438922306087069</v>
       </c>
     </row>
   </sheetData>
